--- a/code/note_frequency_counter.xlsx
+++ b/code/note_frequency_counter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Frequency</t>
   </si>
@@ -508,7 +508,7 @@
   <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,55 +524,55 @@
         <v>1</v>
       </c>
       <c r="K1" s="1">
-        <f>K6/2</f>
-        <v>130.80000000000001</v>
+        <f t="shared" ref="K1:V1" si="0">K6/2</f>
+        <v>65.400000000000006</v>
       </c>
       <c r="L1" s="1">
-        <f>L6/2</f>
-        <v>138.6</v>
+        <f t="shared" si="0"/>
+        <v>69.3</v>
       </c>
       <c r="M1" s="1">
-        <f>M6/2</f>
-        <v>146.85</v>
+        <f t="shared" si="0"/>
+        <v>73.424999999999997</v>
       </c>
       <c r="N1" s="1">
-        <f>N6/2</f>
-        <v>155.55000000000001</v>
+        <f t="shared" si="0"/>
+        <v>77.775000000000006</v>
       </c>
       <c r="O1" s="1">
-        <f>O6/2</f>
-        <v>164.8</v>
+        <f t="shared" si="0"/>
+        <v>82.4</v>
       </c>
       <c r="P1" s="1">
-        <f>P6/2</f>
-        <v>174.6</v>
+        <f t="shared" si="0"/>
+        <v>87.3</v>
       </c>
       <c r="Q1" s="1">
-        <f>Q6/2</f>
-        <v>185</v>
+        <f t="shared" si="0"/>
+        <v>92.5</v>
       </c>
       <c r="R1" s="1">
-        <f>R6/2</f>
-        <v>196</v>
+        <f t="shared" si="0"/>
+        <v>98</v>
       </c>
       <c r="S1" s="1">
-        <f>S6/2</f>
-        <v>207.65</v>
+        <f t="shared" si="0"/>
+        <v>103.825</v>
       </c>
       <c r="T1" s="1">
-        <f>T6/2</f>
-        <v>220</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
       <c r="U1" s="1">
-        <f>U6/2</f>
-        <v>233.1</v>
+        <f t="shared" si="0"/>
+        <v>116.55</v>
       </c>
       <c r="V1" s="1">
-        <f>V6/2</f>
-        <v>246.95</v>
+        <f t="shared" si="0"/>
+        <v>123.47499999999999</v>
       </c>
       <c r="W1" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -598,40 +598,40 @@
         <v>3</v>
       </c>
       <c r="K2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="L2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="M2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="N2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="O2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="P2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="Q2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="R2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="S2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="T2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="U2">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="V2">
-        <v>256</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -639,75 +639,75 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>$B$1/(D$2*$C3)</f>
+        <f t="shared" ref="D3:H12" si="1">$B$1/(D$2*$C3)</f>
         <v>4000000</v>
       </c>
       <c r="E3">
-        <f>$B$1/(E$2*$C3)</f>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="F3">
-        <f>$B$1/(F$2*$C3)</f>
+        <f t="shared" si="1"/>
         <v>62500</v>
       </c>
       <c r="G3">
-        <f>$B$1/(G$2*$C3)</f>
+        <f t="shared" si="1"/>
         <v>15625</v>
       </c>
       <c r="H3">
-        <f>$B$1/(H$2*$C3)</f>
+        <f t="shared" si="1"/>
         <v>3906.25</v>
       </c>
       <c r="J3" t="s">
         <v>4</v>
       </c>
       <c r="K3">
-        <f>K13</f>
-        <v>239</v>
+        <f t="shared" ref="K3:V3" si="2">K13</f>
+        <v>119</v>
       </c>
       <c r="L3">
-        <f>L13</f>
-        <v>225</v>
+        <f t="shared" si="2"/>
+        <v>112</v>
       </c>
       <c r="M3">
-        <f>M13</f>
-        <v>213</v>
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="N3">
-        <f>N13</f>
-        <v>201</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="O3">
-        <f>O13</f>
-        <v>190</v>
+        <f t="shared" si="2"/>
+        <v>95</v>
       </c>
       <c r="P3">
-        <f>P13</f>
-        <v>179</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="Q3">
-        <f>Q13</f>
-        <v>169</v>
+        <f t="shared" si="2"/>
+        <v>84</v>
       </c>
       <c r="R3">
-        <f>R13</f>
-        <v>159</v>
+        <f t="shared" si="2"/>
+        <v>79</v>
       </c>
       <c r="S3">
-        <f>S13</f>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="T3">
-        <f>T13</f>
-        <v>142</v>
+        <f t="shared" si="2"/>
+        <v>71</v>
       </c>
       <c r="U3">
-        <f>U13</f>
-        <v>134</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="V3">
-        <f>V13</f>
-        <v>127</v>
+        <f t="shared" si="2"/>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -715,75 +715,75 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <f>$B$1/(D$2*$C4)</f>
+        <f t="shared" si="1"/>
         <v>2000000</v>
       </c>
       <c r="E4">
-        <f>$B$1/(E$2*$C4)</f>
+        <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="F4">
-        <f>$B$1/(F$2*$C4)</f>
+        <f t="shared" si="1"/>
         <v>31250</v>
       </c>
       <c r="G4">
-        <f>$B$1/(G$2*$C4)</f>
+        <f t="shared" si="1"/>
         <v>7812.5</v>
       </c>
       <c r="H4">
-        <f>$B$1/(H$2*$C4)</f>
+        <f t="shared" si="1"/>
         <v>1953.125</v>
       </c>
       <c r="J4" t="s">
         <v>0</v>
       </c>
       <c r="K4">
-        <f>$B$1/(K3*K2)</f>
-        <v>130.75313807531381</v>
+        <f t="shared" ref="K4" si="3">$B$1/(K3*K2)</f>
+        <v>65.651260504201687</v>
       </c>
       <c r="L4">
-        <f>$B$1/(L3*L2)</f>
-        <v>138.88888888888889</v>
+        <f t="shared" ref="L4" si="4">$B$1/(L3*L2)</f>
+        <v>69.754464285714292</v>
       </c>
       <c r="M4">
-        <f>$B$1/(M3*M2)</f>
-        <v>146.71361502347418</v>
+        <f t="shared" ref="M4" si="5">$B$1/(M3*M2)</f>
+        <v>73.702830188679243</v>
       </c>
       <c r="N4">
-        <f>$B$1/(N3*N2)</f>
-        <v>155.4726368159204</v>
+        <f t="shared" ref="N4" si="6">$B$1/(N3*N2)</f>
+        <v>78.125</v>
       </c>
       <c r="O4">
-        <f>$B$1/(O3*O2)</f>
-        <v>164.47368421052633</v>
+        <f t="shared" ref="O4" si="7">$B$1/(O3*O2)</f>
+        <v>82.236842105263165</v>
       </c>
       <c r="P4">
-        <f>$B$1/(P3*P2)</f>
-        <v>174.58100558659217</v>
+        <f t="shared" ref="P4" si="8">$B$1/(P3*P2)</f>
+        <v>87.780898876404493</v>
       </c>
       <c r="Q4">
-        <f>$B$1/(Q3*Q2)</f>
-        <v>184.91124260355031</v>
+        <f t="shared" ref="Q4" si="9">$B$1/(Q3*Q2)</f>
+        <v>93.00595238095238</v>
       </c>
       <c r="R4">
-        <f>$B$1/(R3*R2)</f>
-        <v>196.54088050314465</v>
+        <f t="shared" ref="R4" si="10">$B$1/(R3*R2)</f>
+        <v>98.892405063291136</v>
       </c>
       <c r="S4">
-        <f>$B$1/(S3*S2)</f>
-        <v>208.33333333333334</v>
+        <f t="shared" ref="S4" si="11">$B$1/(S3*S2)</f>
+        <v>104.16666666666667</v>
       </c>
       <c r="T4">
-        <f>$B$1/(T3*T2)</f>
-        <v>220.07042253521126</v>
+        <f t="shared" ref="T4" si="12">$B$1/(T3*T2)</f>
+        <v>110.03521126760563</v>
       </c>
       <c r="U4">
-        <f>$B$1/(U3*U2)</f>
-        <v>233.20895522388059</v>
+        <f t="shared" ref="U4" si="13">$B$1/(U3*U2)</f>
+        <v>116.6044776119403</v>
       </c>
       <c r="V4">
-        <f>$B$1/(V3*V2)</f>
-        <v>246.06299212598427</v>
+        <f t="shared" ref="V4" si="14">$B$1/(V3*V2)</f>
+        <v>124.00793650793651</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -791,23 +791,23 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <f>$B$1/(D$2*$C5)</f>
+        <f t="shared" si="1"/>
         <v>1333333.3333333333</v>
       </c>
       <c r="E5">
-        <f>$B$1/(E$2*$C5)</f>
+        <f t="shared" si="1"/>
         <v>166666.66666666666</v>
       </c>
       <c r="F5">
-        <f>$B$1/(F$2*$C5)</f>
+        <f t="shared" si="1"/>
         <v>20833.333333333332</v>
       </c>
       <c r="G5">
-        <f>$B$1/(G$2*$C5)</f>
+        <f t="shared" si="1"/>
         <v>5208.333333333333</v>
       </c>
       <c r="H5">
-        <f>$B$1/(H$2*$C5)</f>
+        <f t="shared" si="1"/>
         <v>1302.0833333333333</v>
       </c>
     </row>
@@ -816,63 +816,75 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <f>$B$1/(D$2*$C6)</f>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="E6">
-        <f>$B$1/(E$2*$C6)</f>
+        <f t="shared" si="1"/>
         <v>125000</v>
       </c>
       <c r="F6">
-        <f>$B$1/(F$2*$C6)</f>
+        <f t="shared" si="1"/>
         <v>15625</v>
       </c>
       <c r="G6">
-        <f>$B$1/(G$2*$C6)</f>
+        <f t="shared" si="1"/>
         <v>3906.25</v>
       </c>
       <c r="H6">
-        <f>$B$1/(H$2*$C6)</f>
+        <f t="shared" si="1"/>
         <v>976.5625</v>
       </c>
       <c r="K6" s="1">
-        <v>261.60000000000002</v>
-      </c>
-      <c r="L6" s="2">
-        <v>277.2</v>
-      </c>
-      <c r="M6" s="2">
-        <v>293.7</v>
-      </c>
-      <c r="N6" s="2">
-        <v>311.10000000000002</v>
-      </c>
-      <c r="O6" s="2">
-        <v>329.6</v>
-      </c>
-      <c r="P6" s="2">
-        <v>349.2</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>370</v>
-      </c>
-      <c r="R6" s="2">
-        <v>392</v>
-      </c>
-      <c r="S6" s="2">
-        <v>415.3</v>
-      </c>
-      <c r="T6" s="2">
-        <v>440</v>
-      </c>
-      <c r="U6" s="2">
-        <v>466.2</v>
-      </c>
-      <c r="V6" s="3">
-        <v>493.9</v>
+        <f t="shared" ref="K6:V6" si="15">K11/2</f>
+        <v>130.80000000000001</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="15"/>
+        <v>138.6</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="15"/>
+        <v>146.85</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="15"/>
+        <v>155.55000000000001</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="15"/>
+        <v>164.8</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="15"/>
+        <v>174.6</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="15"/>
+        <v>185</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="15"/>
+        <v>196</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="15"/>
+        <v>207.65</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="15"/>
+        <v>220</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="15"/>
+        <v>233.1</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="15"/>
+        <v>246.95</v>
       </c>
       <c r="W6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -880,23 +892,23 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <f>$B$1/(D$2*$C7)</f>
+        <f t="shared" si="1"/>
         <v>800000</v>
       </c>
       <c r="E7">
-        <f>$B$1/(E$2*$C7)</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="F7">
-        <f>$B$1/(F$2*$C7)</f>
+        <f t="shared" si="1"/>
         <v>12500</v>
       </c>
       <c r="G7">
-        <f>$B$1/(G$2*$C7)</f>
+        <f t="shared" si="1"/>
         <v>3125</v>
       </c>
       <c r="H7">
-        <f>$B$1/(H$2*$C7)</f>
+        <f t="shared" si="1"/>
         <v>781.25</v>
       </c>
       <c r="J7" t="s">
@@ -944,66 +956,75 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <f>$B$1/(D$2*$C8)</f>
+        <f t="shared" si="1"/>
         <v>666666.66666666663</v>
       </c>
       <c r="E8">
-        <f>$B$1/(E$2*$C8)</f>
+        <f t="shared" si="1"/>
         <v>83333.333333333328</v>
       </c>
       <c r="F8">
-        <f>$B$1/(F$2*$C8)</f>
+        <f t="shared" si="1"/>
         <v>10416.666666666666</v>
       </c>
       <c r="G8">
-        <f>$B$1/(G$2*$C8)</f>
+        <f t="shared" si="1"/>
         <v>2604.1666666666665</v>
       </c>
       <c r="H8">
-        <f>$B$1/(H$2*$C8)</f>
+        <f t="shared" si="1"/>
         <v>651.04166666666663</v>
       </c>
       <c r="J8" t="s">
         <v>4</v>
       </c>
       <c r="K8">
-        <v>119</v>
+        <f t="shared" ref="K8:V8" si="16">K18</f>
+        <v>239</v>
       </c>
       <c r="L8">
-        <v>112</v>
+        <f t="shared" si="16"/>
+        <v>225</v>
       </c>
       <c r="M8">
-        <v>106</v>
+        <f t="shared" si="16"/>
+        <v>213</v>
       </c>
       <c r="N8">
-        <v>100</v>
+        <f t="shared" si="16"/>
+        <v>201</v>
       </c>
       <c r="O8">
-        <v>95</v>
+        <f t="shared" si="16"/>
+        <v>190</v>
       </c>
       <c r="P8">
-        <v>89</v>
+        <f t="shared" si="16"/>
+        <v>179</v>
       </c>
       <c r="Q8">
-        <v>84</v>
+        <f t="shared" si="16"/>
+        <v>169</v>
       </c>
       <c r="R8">
-        <v>79</v>
+        <f t="shared" si="16"/>
+        <v>159</v>
       </c>
       <c r="S8">
-        <f>S13/2</f>
-        <v>75</v>
+        <f t="shared" si="16"/>
+        <v>150</v>
       </c>
       <c r="T8">
-        <f>T13/2</f>
-        <v>71</v>
+        <f t="shared" si="16"/>
+        <v>142</v>
       </c>
       <c r="U8">
-        <f>U13/2</f>
-        <v>67</v>
+        <f t="shared" si="16"/>
+        <v>134</v>
       </c>
       <c r="V8">
-        <v>63</v>
+        <f t="shared" si="16"/>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1011,75 +1032,75 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <f>$B$1/(D$2*$C9)</f>
+        <f t="shared" si="1"/>
         <v>571428.57142857148</v>
       </c>
       <c r="E9">
-        <f>$B$1/(E$2*$C9)</f>
+        <f t="shared" si="1"/>
         <v>71428.571428571435</v>
       </c>
       <c r="F9">
-        <f>$B$1/(F$2*$C9)</f>
+        <f t="shared" si="1"/>
         <v>8928.5714285714294</v>
       </c>
       <c r="G9">
-        <f>$B$1/(G$2*$C9)</f>
+        <f t="shared" si="1"/>
         <v>2232.1428571428573</v>
       </c>
       <c r="H9">
-        <f>$B$1/(H$2*$C9)</f>
+        <f t="shared" si="1"/>
         <v>558.03571428571433</v>
       </c>
       <c r="J9" t="s">
         <v>0</v>
       </c>
       <c r="K9">
-        <f>$B$1/(K8*K7)</f>
-        <v>262.60504201680675</v>
+        <f t="shared" ref="K9:V9" si="17">$B$1/(K8*K7)</f>
+        <v>130.75313807531381</v>
       </c>
       <c r="L9">
-        <f>$B$1/(L8*L7)</f>
-        <v>279.01785714285717</v>
+        <f t="shared" si="17"/>
+        <v>138.88888888888889</v>
       </c>
       <c r="M9">
-        <f>$B$1/(M8*M7)</f>
-        <v>294.81132075471697</v>
+        <f t="shared" si="17"/>
+        <v>146.71361502347418</v>
       </c>
       <c r="N9">
-        <f>$B$1/(N8*N7)</f>
-        <v>312.5</v>
+        <f t="shared" si="17"/>
+        <v>155.4726368159204</v>
       </c>
       <c r="O9">
-        <f>$B$1/(O8*O7)</f>
-        <v>328.94736842105266</v>
+        <f t="shared" si="17"/>
+        <v>164.47368421052633</v>
       </c>
       <c r="P9">
-        <f>$B$1/(P8*P7)</f>
-        <v>351.12359550561797</v>
+        <f t="shared" si="17"/>
+        <v>174.58100558659217</v>
       </c>
       <c r="Q9">
-        <f>$B$1/(Q8*Q7)</f>
-        <v>372.02380952380952</v>
+        <f t="shared" si="17"/>
+        <v>184.91124260355031</v>
       </c>
       <c r="R9">
-        <f>$B$1/(R8*R7)</f>
-        <v>395.56962025316454</v>
+        <f t="shared" si="17"/>
+        <v>196.54088050314465</v>
       </c>
       <c r="S9">
-        <f>$B$1/(S8*S7)</f>
-        <v>416.66666666666669</v>
+        <f t="shared" si="17"/>
+        <v>208.33333333333334</v>
       </c>
       <c r="T9">
-        <f>$B$1/(T8*T7)</f>
-        <v>440.14084507042253</v>
+        <f t="shared" si="17"/>
+        <v>220.07042253521126</v>
       </c>
       <c r="U9">
-        <f>$B$1/(U8*U7)</f>
-        <v>466.41791044776119</v>
+        <f t="shared" si="17"/>
+        <v>233.20895522388059</v>
       </c>
       <c r="V9">
-        <f>$B$1/(V8*V7)</f>
-        <v>496.03174603174602</v>
+        <f t="shared" si="17"/>
+        <v>246.06299212598427</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1087,23 +1108,23 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <f>$B$1/(D$2*$C10)</f>
+        <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="E10">
-        <f>$B$1/(E$2*$C10)</f>
+        <f t="shared" si="1"/>
         <v>62500</v>
       </c>
       <c r="F10">
-        <f>$B$1/(F$2*$C10)</f>
+        <f t="shared" si="1"/>
         <v>7812.5</v>
       </c>
       <c r="G10">
-        <f>$B$1/(G$2*$C10)</f>
+        <f t="shared" si="1"/>
         <v>1953.125</v>
       </c>
       <c r="H10">
-        <f>$B$1/(H$2*$C10)</f>
+        <f t="shared" si="1"/>
         <v>488.28125</v>
       </c>
     </row>
@@ -1112,63 +1133,63 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <f>$B$1/(D$2*$C11)</f>
+        <f t="shared" si="1"/>
         <v>444444.44444444444</v>
       </c>
       <c r="E11">
-        <f>$B$1/(E$2*$C11)</f>
+        <f t="shared" si="1"/>
         <v>55555.555555555555</v>
       </c>
       <c r="F11">
-        <f>$B$1/(F$2*$C11)</f>
+        <f t="shared" si="1"/>
         <v>6944.4444444444443</v>
       </c>
       <c r="G11">
-        <f>$B$1/(G$2*$C11)</f>
+        <f t="shared" si="1"/>
         <v>1736.1111111111111</v>
       </c>
       <c r="H11">
-        <f>$B$1/(H$2*$C11)</f>
+        <f t="shared" si="1"/>
         <v>434.02777777777777</v>
       </c>
-      <c r="K11" s="4">
-        <v>523.29999999999995</v>
-      </c>
-      <c r="L11" s="5">
-        <v>554.4</v>
-      </c>
-      <c r="M11" s="5">
-        <v>587.29999999999995</v>
-      </c>
-      <c r="N11" s="5">
-        <v>622.29999999999995</v>
-      </c>
-      <c r="O11" s="5">
-        <v>659.3</v>
-      </c>
-      <c r="P11" s="5">
-        <v>698.5</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>740</v>
-      </c>
-      <c r="R11" s="5">
-        <v>784</v>
-      </c>
-      <c r="S11" s="5">
-        <v>830.6</v>
-      </c>
-      <c r="T11" s="5">
-        <v>880</v>
-      </c>
-      <c r="U11" s="5">
-        <v>932.3</v>
-      </c>
-      <c r="V11" s="6">
-        <v>987.8</v>
-      </c>
-      <c r="W11" s="8">
-        <v>5</v>
+      <c r="K11" s="1">
+        <v>261.60000000000002</v>
+      </c>
+      <c r="L11" s="2">
+        <v>277.2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>293.7</v>
+      </c>
+      <c r="N11" s="2">
+        <v>311.10000000000002</v>
+      </c>
+      <c r="O11" s="2">
+        <v>329.6</v>
+      </c>
+      <c r="P11" s="2">
+        <v>349.2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>370</v>
+      </c>
+      <c r="R11" s="2">
+        <v>392</v>
+      </c>
+      <c r="S11" s="2">
+        <v>415.3</v>
+      </c>
+      <c r="T11" s="2">
+        <v>440</v>
+      </c>
+      <c r="U11" s="2">
+        <v>466.2</v>
+      </c>
+      <c r="V11" s="3">
+        <v>493.9</v>
+      </c>
+      <c r="W11" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1176,63 +1197,63 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <f>$B$1/(D$2*$C12)</f>
+        <f t="shared" si="1"/>
         <v>400000</v>
       </c>
       <c r="E12">
-        <f>$B$1/(E$2*$C12)</f>
+        <f t="shared" si="1"/>
         <v>50000</v>
       </c>
       <c r="F12">
-        <f>$B$1/(F$2*$C12)</f>
+        <f t="shared" si="1"/>
         <v>6250</v>
       </c>
       <c r="G12">
-        <f>$B$1/(G$2*$C12)</f>
+        <f t="shared" si="1"/>
         <v>1562.5</v>
       </c>
       <c r="H12">
-        <f>$B$1/(H$2*$C12)</f>
+        <f t="shared" si="1"/>
         <v>390.625</v>
       </c>
       <c r="J12" t="s">
         <v>3</v>
       </c>
       <c r="K12">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="N12">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="O12">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="P12">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="Q12">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="R12">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="S12">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="T12">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="U12">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="V12">
-        <v>64</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1240,63 +1261,66 @@
         <v>22</v>
       </c>
       <c r="D13">
-        <f>$B$1/(D$2*$C13)</f>
+        <f t="shared" ref="D13:H20" si="18">$B$1/(D$2*$C13)</f>
         <v>363636.36363636365</v>
       </c>
       <c r="E13">
-        <f>$B$1/(E$2*$C13)</f>
+        <f t="shared" si="18"/>
         <v>45454.545454545456</v>
       </c>
       <c r="F13">
-        <f>$B$1/(F$2*$C13)</f>
+        <f t="shared" si="18"/>
         <v>5681.818181818182</v>
       </c>
       <c r="G13">
-        <f>$B$1/(G$2*$C13)</f>
+        <f t="shared" si="18"/>
         <v>1420.4545454545455</v>
       </c>
       <c r="H13">
-        <f>$B$1/(H$2*$C13)</f>
+        <f t="shared" si="18"/>
         <v>355.11363636363637</v>
       </c>
       <c r="J13" t="s">
         <v>4</v>
       </c>
       <c r="K13">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="L13">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="N13">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="O13">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="P13">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="Q13">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="R13">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="S13">
-        <v>150</v>
+        <f>S18/2</f>
+        <v>75</v>
       </c>
       <c r="T13">
-        <v>142</v>
+        <f>T18/2</f>
+        <v>71</v>
       </c>
       <c r="U13">
-        <v>134</v>
+        <f>U18/2</f>
+        <v>67</v>
       </c>
       <c r="V13">
-        <v>127</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1304,560 +1328,728 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <f>$B$1/(D$2*$C14)</f>
+        <f t="shared" si="18"/>
         <v>333333.33333333331</v>
       </c>
       <c r="E14">
-        <f>$B$1/(E$2*$C14)</f>
+        <f t="shared" si="18"/>
         <v>41666.666666666664</v>
       </c>
       <c r="F14">
-        <f>$B$1/(F$2*$C14)</f>
+        <f t="shared" si="18"/>
         <v>5208.333333333333</v>
       </c>
       <c r="G14">
-        <f>$B$1/(G$2*$C14)</f>
+        <f t="shared" si="18"/>
         <v>1302.0833333333333</v>
       </c>
       <c r="H14">
-        <f>$B$1/(H$2*$C14)</f>
+        <f t="shared" si="18"/>
         <v>325.52083333333331</v>
       </c>
       <c r="J14" t="s">
         <v>0</v>
       </c>
       <c r="K14">
-        <f>$B$1/(K13*K12)</f>
-        <v>523.01255230125525</v>
+        <f t="shared" ref="K14:V14" si="19">$B$1/(K13*K12)</f>
+        <v>262.60504201680675</v>
       </c>
       <c r="L14">
-        <f>$B$1/(L13*L12)</f>
-        <v>555.55555555555554</v>
+        <f t="shared" si="19"/>
+        <v>279.01785714285717</v>
       </c>
       <c r="M14">
-        <f>$B$1/(M13*M12)</f>
-        <v>586.85446009389671</v>
+        <f t="shared" si="19"/>
+        <v>294.81132075471697</v>
       </c>
       <c r="N14">
-        <f>$B$1/(N13*N12)</f>
-        <v>621.89054726368158</v>
+        <f t="shared" si="19"/>
+        <v>312.5</v>
       </c>
       <c r="O14">
-        <f>$B$1/(O13*O12)</f>
-        <v>657.89473684210532</v>
+        <f t="shared" si="19"/>
+        <v>328.94736842105266</v>
       </c>
       <c r="P14">
-        <f>$B$1/(P13*P12)</f>
-        <v>698.32402234636868</v>
+        <f t="shared" si="19"/>
+        <v>351.12359550561797</v>
       </c>
       <c r="Q14">
-        <f>$B$1/(Q13*Q12)</f>
-        <v>739.64497041420123</v>
+        <f t="shared" si="19"/>
+        <v>372.02380952380952</v>
       </c>
       <c r="R14">
-        <f>$B$1/(R13*R12)</f>
-        <v>786.1635220125786</v>
+        <f t="shared" si="19"/>
+        <v>395.56962025316454</v>
       </c>
       <c r="S14">
-        <f>$B$1/(S13*S12)</f>
-        <v>833.33333333333337</v>
+        <f t="shared" si="19"/>
+        <v>416.66666666666669</v>
       </c>
       <c r="T14">
-        <f>$B$1/(T13*T12)</f>
-        <v>880.28169014084506</v>
+        <f t="shared" si="19"/>
+        <v>440.14084507042253</v>
       </c>
       <c r="U14">
-        <f>$B$1/(U13*U12)</f>
-        <v>932.83582089552237</v>
+        <f t="shared" si="19"/>
+        <v>466.41791044776119</v>
       </c>
       <c r="V14">
-        <f>$B$1/(V13*V12)</f>
-        <v>984.25196850393706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>496.03174603174602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>26</v>
       </c>
       <c r="D15">
-        <f>$B$1/(D$2*$C15)</f>
+        <f t="shared" si="18"/>
         <v>307692.30769230769</v>
       </c>
       <c r="E15">
-        <f>$B$1/(E$2*$C15)</f>
+        <f t="shared" si="18"/>
         <v>38461.538461538461</v>
       </c>
       <c r="F15">
-        <f>$B$1/(F$2*$C15)</f>
+        <f t="shared" si="18"/>
         <v>4807.6923076923076</v>
       </c>
       <c r="G15">
-        <f>$B$1/(G$2*$C15)</f>
+        <f t="shared" si="18"/>
         <v>1201.9230769230769</v>
       </c>
       <c r="H15">
-        <f>$B$1/(H$2*$C15)</f>
+        <f t="shared" si="18"/>
         <v>300.48076923076923</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>28</v>
       </c>
       <c r="D16">
-        <f>$B$1/(D$2*$C16)</f>
+        <f t="shared" si="18"/>
         <v>285714.28571428574</v>
       </c>
       <c r="E16">
-        <f>$B$1/(E$2*$C16)</f>
+        <f t="shared" si="18"/>
         <v>35714.285714285717</v>
       </c>
       <c r="F16">
-        <f>$B$1/(F$2*$C16)</f>
+        <f t="shared" si="18"/>
         <v>4464.2857142857147</v>
       </c>
       <c r="G16">
-        <f>$B$1/(G$2*$C16)</f>
+        <f t="shared" si="18"/>
         <v>1116.0714285714287</v>
       </c>
       <c r="H16">
-        <f>$B$1/(H$2*$C16)</f>
+        <f t="shared" si="18"/>
         <v>279.01785714285717</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="4">
+        <v>523.29999999999995</v>
+      </c>
+      <c r="L16" s="5">
+        <v>554.4</v>
+      </c>
+      <c r="M16" s="5">
+        <v>587.29999999999995</v>
+      </c>
+      <c r="N16" s="5">
+        <v>622.29999999999995</v>
+      </c>
+      <c r="O16" s="5">
+        <v>659.3</v>
+      </c>
+      <c r="P16" s="5">
+        <v>698.5</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>740</v>
+      </c>
+      <c r="R16" s="5">
+        <v>784</v>
+      </c>
+      <c r="S16" s="5">
+        <v>830.6</v>
+      </c>
+      <c r="T16" s="5">
+        <v>880</v>
+      </c>
+      <c r="U16" s="5">
+        <v>932.3</v>
+      </c>
+      <c r="V16" s="6">
+        <v>987.8</v>
+      </c>
+      <c r="W16" s="8">
         <v>5</v>
       </c>
-      <c r="L16" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" t="s">
-        <v>13</v>
-      </c>
-      <c r="T16" t="s">
-        <v>14</v>
-      </c>
-      <c r="U16" t="s">
-        <v>15</v>
-      </c>
-      <c r="V16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>30</v>
       </c>
       <c r="D17">
-        <f>$B$1/(D$2*$C17)</f>
+        <f t="shared" si="18"/>
         <v>266666.66666666669</v>
       </c>
       <c r="E17">
-        <f>$B$1/(E$2*$C17)</f>
+        <f t="shared" si="18"/>
         <v>33333.333333333336</v>
       </c>
       <c r="F17">
-        <f>$B$1/(F$2*$C17)</f>
+        <f t="shared" si="18"/>
         <v>4166.666666666667</v>
       </c>
       <c r="G17">
-        <f>$B$1/(G$2*$C17)</f>
+        <f t="shared" si="18"/>
         <v>1041.6666666666667</v>
       </c>
       <c r="H17">
-        <f>$B$1/(H$2*$C17)</f>
+        <f t="shared" si="18"/>
         <v>260.41666666666669</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>64</v>
+      </c>
+      <c r="L17">
+        <v>64</v>
+      </c>
+      <c r="M17">
+        <v>64</v>
+      </c>
+      <c r="N17">
+        <v>64</v>
+      </c>
+      <c r="O17">
+        <v>64</v>
+      </c>
+      <c r="P17">
+        <v>64</v>
+      </c>
+      <c r="Q17">
+        <v>64</v>
+      </c>
+      <c r="R17">
+        <v>64</v>
+      </c>
+      <c r="S17">
+        <v>64</v>
+      </c>
+      <c r="T17">
+        <v>64</v>
+      </c>
+      <c r="U17">
+        <v>64</v>
+      </c>
+      <c r="V17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>32</v>
       </c>
       <c r="D18">
-        <f>$B$1/(D$2*$C18)</f>
+        <f t="shared" si="18"/>
         <v>250000</v>
       </c>
       <c r="E18">
-        <f>$B$1/(E$2*$C18)</f>
+        <f t="shared" si="18"/>
         <v>31250</v>
       </c>
       <c r="F18">
-        <f>$B$1/(F$2*$C18)</f>
+        <f t="shared" si="18"/>
         <v>3906.25</v>
       </c>
       <c r="G18">
-        <f>$B$1/(G$2*$C18)</f>
+        <f t="shared" si="18"/>
         <v>976.5625</v>
       </c>
       <c r="H18">
-        <f>$B$1/(H$2*$C18)</f>
+        <f t="shared" si="18"/>
         <v>244.140625</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>239</v>
+      </c>
+      <c r="L18">
+        <v>225</v>
+      </c>
+      <c r="M18">
+        <v>213</v>
+      </c>
+      <c r="N18">
+        <v>201</v>
+      </c>
+      <c r="O18">
+        <v>190</v>
+      </c>
+      <c r="P18">
+        <v>179</v>
+      </c>
+      <c r="Q18">
+        <v>169</v>
+      </c>
+      <c r="R18">
+        <v>159</v>
+      </c>
+      <c r="S18">
+        <v>150</v>
+      </c>
+      <c r="T18">
+        <v>142</v>
+      </c>
+      <c r="U18">
+        <v>134</v>
+      </c>
+      <c r="V18">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>34</v>
       </c>
       <c r="D19">
-        <f>$B$1/(D$2*$C19)</f>
+        <f t="shared" si="18"/>
         <v>235294.11764705883</v>
       </c>
       <c r="E19">
-        <f>$B$1/(E$2*$C19)</f>
+        <f t="shared" si="18"/>
         <v>29411.764705882353</v>
       </c>
       <c r="F19">
-        <f>$B$1/(F$2*$C19)</f>
+        <f t="shared" si="18"/>
         <v>3676.4705882352941</v>
       </c>
       <c r="G19">
-        <f>$B$1/(G$2*$C19)</f>
+        <f t="shared" si="18"/>
         <v>919.11764705882354</v>
       </c>
       <c r="H19">
-        <f>$B$1/(H$2*$C19)</f>
+        <f t="shared" si="18"/>
         <v>229.77941176470588</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:V19" si="20">$B$1/(K18*K17)</f>
+        <v>523.01255230125525</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="20"/>
+        <v>555.55555555555554</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="20"/>
+        <v>586.85446009389671</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="20"/>
+        <v>621.89054726368158</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="20"/>
+        <v>657.89473684210532</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="20"/>
+        <v>698.32402234636868</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="20"/>
+        <v>739.64497041420123</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="20"/>
+        <v>786.1635220125786</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="20"/>
+        <v>833.33333333333337</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="20"/>
+        <v>880.28169014084506</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="20"/>
+        <v>932.83582089552237</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="20"/>
+        <v>984.25196850393706</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>36</v>
       </c>
       <c r="D20">
-        <f>$B$1/(D$2*$C20)</f>
+        <f t="shared" si="18"/>
         <v>222222.22222222222</v>
       </c>
       <c r="E20">
-        <f>$B$1/(E$2*$C20)</f>
+        <f t="shared" si="18"/>
         <v>27777.777777777777</v>
       </c>
       <c r="F20">
-        <f>$B$1/(F$2*$C20)</f>
+        <f t="shared" si="18"/>
         <v>3472.2222222222222</v>
       </c>
       <c r="G20">
-        <f>$B$1/(G$2*$C20)</f>
+        <f t="shared" si="18"/>
         <v>868.05555555555554</v>
       </c>
       <c r="H20">
-        <f>$B$1/(H$2*$C20)</f>
+        <f t="shared" si="18"/>
         <v>217.01388888888889</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>38</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:H36" si="0">$B$1/(D$2*$C21)</f>
+        <f t="shared" ref="D21:H36" si="21">$B$1/(D$2*$C21)</f>
         <v>210526.31578947368</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>26315.78947368421</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>3289.4736842105262</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>822.36842105263156</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>205.59210526315789</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" t="s">
+        <v>13</v>
+      </c>
+      <c r="T21" t="s">
+        <v>14</v>
+      </c>
+      <c r="U21" t="s">
+        <v>15</v>
+      </c>
+      <c r="V21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>40</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>200000</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>25000</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>3125</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>781.25</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>195.3125</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>42</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>190476.19047619047</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>23809.523809523809</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>2976.1904761904761</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>744.04761904761904</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>186.01190476190476</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>44</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>181818.18181818182</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>22727.272727272728</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>2840.909090909091</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>710.22727272727275</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>177.55681818181819</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>46</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>173913.04347826086</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>21739.130434782608</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>2717.391304347826</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>679.3478260869565</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>169.83695652173913</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>48</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>166666.66666666666</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>20833.333333333332</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>2604.1666666666665</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>651.04166666666663</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>162.76041666666666</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>50</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>160000</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>2500</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>625</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>156.25</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>52</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>153846.15384615384</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>19230.76923076923</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>2403.8461538461538</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>600.96153846153845</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>150.24038461538461</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>54</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>148148.14814814815</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>18518.518518518518</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>2314.8148148148148</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>578.7037037037037</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>144.67592592592592</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>56</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>142857.14285714287</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>17857.142857142859</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>2232.1428571428573</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>558.03571428571433</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>139.50892857142858</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>58</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>137931.03448275861</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>17241.379310344826</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>2155.1724137931033</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>538.79310344827582</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>134.69827586206895</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>60</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>133333.33333333334</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>16666.666666666668</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>2083.3333333333335</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>520.83333333333337</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>130.20833333333334</v>
       </c>
     </row>
@@ -1866,23 +2058,23 @@
         <v>62</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>129032.25806451614</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>16129.032258064517</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>2016.1290322580646</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>504.03225806451616</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>126.00806451612904</v>
       </c>
     </row>
@@ -1891,23 +2083,23 @@
         <v>64</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>125000</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>15625</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>1953.125</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>488.28125</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>122.0703125</v>
       </c>
     </row>
@@ -1916,23 +2108,23 @@
         <v>66</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>121212.12121212122</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>15151.515151515152</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>1893.939393939394</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>473.4848484848485</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>118.37121212121212</v>
       </c>
     </row>
@@ -1941,23 +2133,23 @@
         <v>68</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>117647.05882352941</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>14705.882352941177</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>1838.2352941176471</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>459.55882352941177</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>114.88970588235294</v>
       </c>
     </row>
@@ -1966,23 +2158,23 @@
         <v>70</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:H100" si="1">$B$1/(D$2*$C37)</f>
+        <f t="shared" ref="D37:H87" si="22">$B$1/(D$2*$C37)</f>
         <v>114285.71428571429</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>14285.714285714286</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1785.7142857142858</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>446.42857142857144</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>111.60714285714286</v>
       </c>
     </row>
@@ -1991,23 +2183,23 @@
         <v>72</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>111111.11111111111</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>13888.888888888889</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1736.1111111111111</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>434.02777777777777</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>108.50694444444444</v>
       </c>
     </row>
@@ -2016,23 +2208,23 @@
         <v>74</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>108108.10810810811</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>13513.513513513513</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1689.1891891891892</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>422.29729729729729</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>105.57432432432432</v>
       </c>
     </row>
@@ -2041,23 +2233,23 @@
         <v>76</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>105263.15789473684</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>13157.894736842105</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1644.7368421052631</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>411.18421052631578</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>102.79605263157895</v>
       </c>
     </row>
@@ -2066,23 +2258,23 @@
         <v>78</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>102564.10256410256</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>12820.51282051282</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1602.5641025641025</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>400.64102564102564</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>100.16025641025641</v>
       </c>
     </row>
@@ -2091,23 +2283,23 @@
         <v>80</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>100000</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>12500</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1562.5</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>390.625</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>97.65625</v>
       </c>
     </row>
@@ -2116,23 +2308,23 @@
         <v>82</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>97560.975609756104</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>12195.121951219513</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1524.3902439024391</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>381.09756097560978</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>95.274390243902445</v>
       </c>
     </row>
@@ -2141,23 +2333,23 @@
         <v>84</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>95238.095238095237</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>11904.761904761905</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1488.0952380952381</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>372.02380952380952</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>93.00595238095238</v>
       </c>
     </row>
@@ -2166,23 +2358,23 @@
         <v>86</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>93023.255813953481</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>11627.906976744185</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1453.4883720930231</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>363.37209302325579</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>90.843023255813947</v>
       </c>
     </row>
@@ -2191,23 +2383,23 @@
         <v>88</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>90909.090909090912</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>11363.636363636364</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1420.4545454545455</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>355.11363636363637</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>88.778409090909093</v>
       </c>
     </row>
@@ -2216,23 +2408,23 @@
         <v>90</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>88888.888888888891</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>11111.111111111111</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1388.8888888888889</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>347.22222222222223</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>86.805555555555557</v>
       </c>
     </row>
@@ -2241,23 +2433,23 @@
         <v>92</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>86956.521739130432</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>10869.565217391304</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1358.695652173913</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>339.67391304347825</v>
       </c>
       <c r="H48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>84.918478260869563</v>
       </c>
     </row>
@@ -2266,23 +2458,23 @@
         <v>94</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>85106.382978723399</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>10638.297872340425</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1329.7872340425531</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>332.44680851063828</v>
       </c>
       <c r="H49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>83.111702127659569</v>
       </c>
     </row>
@@ -2291,23 +2483,23 @@
         <v>96</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>83333.333333333328</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>10416.666666666666</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1302.0833333333333</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>325.52083333333331</v>
       </c>
       <c r="H50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>81.380208333333329</v>
       </c>
     </row>
@@ -2316,23 +2508,23 @@
         <v>98</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>81632.653061224497</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>10204.081632653062</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1275.5102040816328</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>318.87755102040819</v>
       </c>
       <c r="H51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>79.719387755102048</v>
       </c>
     </row>
@@ -2341,23 +2533,23 @@
         <v>100</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>80000</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>10000</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1250</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>312.5</v>
       </c>
       <c r="H52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>78.125</v>
       </c>
     </row>
@@ -2366,23 +2558,23 @@
         <v>102</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>78431.372549019608</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>9803.9215686274511</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1225.4901960784314</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>306.37254901960785</v>
       </c>
       <c r="H53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>76.593137254901961</v>
       </c>
     </row>
@@ -2391,23 +2583,23 @@
         <v>104</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>76923.076923076922</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>9615.3846153846152</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1201.9230769230769</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>300.48076923076923</v>
       </c>
       <c r="H54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>75.120192307692307</v>
       </c>
     </row>
@@ -2416,23 +2608,23 @@
         <v>106</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>75471.698113207545</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>9433.9622641509432</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1179.2452830188679</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>294.81132075471697</v>
       </c>
       <c r="H55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>73.702830188679243</v>
       </c>
     </row>
@@ -2441,23 +2633,23 @@
         <v>108</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>74074.074074074073</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>9259.2592592592591</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1157.4074074074074</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>289.35185185185185</v>
       </c>
       <c r="H56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>72.337962962962962</v>
       </c>
     </row>
@@ -2466,23 +2658,23 @@
         <v>110</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>72727.272727272721</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>9090.9090909090901</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1136.3636363636363</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>284.09090909090907</v>
       </c>
       <c r="H57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>71.022727272727266</v>
       </c>
     </row>
@@ -2491,23 +2683,23 @@
         <v>112</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>71428.571428571435</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>8928.5714285714294</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1116.0714285714287</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>279.01785714285717</v>
       </c>
       <c r="H58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>69.754464285714292</v>
       </c>
     </row>
@@ -2516,23 +2708,23 @@
         <v>114</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>70175.438596491222</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>8771.9298245614027</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1096.4912280701753</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>274.12280701754383</v>
       </c>
       <c r="H59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>68.530701754385959</v>
       </c>
     </row>
@@ -2541,23 +2733,23 @@
         <v>116</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>68965.517241379304</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>8620.689655172413</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1077.5862068965516</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>269.39655172413791</v>
       </c>
       <c r="H60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>67.349137931034477</v>
       </c>
     </row>
@@ -2566,23 +2758,23 @@
         <v>118</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>67796.610169491527</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>8474.5762711864409</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1059.3220338983051</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>264.83050847457628</v>
       </c>
       <c r="H61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>66.207627118644069</v>
       </c>
     </row>
@@ -2591,23 +2783,23 @@
         <v>120</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>66666.666666666672</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1041.6666666666667</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>260.41666666666669</v>
       </c>
       <c r="H62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>65.104166666666671</v>
       </c>
     </row>
@@ -2616,23 +2808,23 @@
         <v>122</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>65573.770491803283</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>8196.7213114754104</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1024.5901639344263</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>256.14754098360658</v>
       </c>
       <c r="H63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>64.036885245901644</v>
       </c>
     </row>
@@ -2641,23 +2833,23 @@
         <v>124</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>64516.129032258068</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>8064.5161290322585</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>1008.0645161290323</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>252.01612903225808</v>
       </c>
       <c r="H64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>63.00403225806452</v>
       </c>
     </row>
@@ -2666,23 +2858,23 @@
         <v>126</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>63492.063492063491</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>7936.5079365079364</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>992.06349206349205</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>248.01587301587301</v>
       </c>
       <c r="H65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>62.003968253968253</v>
       </c>
     </row>
@@ -2691,23 +2883,23 @@
         <v>128</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>62500</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>7812.5</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>976.5625</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>244.140625</v>
       </c>
       <c r="H66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>61.03515625</v>
       </c>
     </row>
@@ -2716,23 +2908,23 @@
         <v>130</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>61538.461538461539</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>7692.3076923076924</v>
       </c>
       <c r="F67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>961.53846153846155</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>240.38461538461539</v>
       </c>
       <c r="H67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>60.096153846153847</v>
       </c>
     </row>
@@ -2741,23 +2933,23 @@
         <v>132</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>60606.060606060608</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>7575.757575757576</v>
       </c>
       <c r="F68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>946.969696969697</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>236.74242424242425</v>
       </c>
       <c r="H68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>59.185606060606062</v>
       </c>
     </row>
@@ -2766,23 +2958,23 @@
         <v>134</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>59701.492537313432</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>7462.686567164179</v>
       </c>
       <c r="F69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>932.83582089552237</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>233.20895522388059</v>
       </c>
       <c r="H69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>58.302238805970148</v>
       </c>
     </row>
@@ -2791,23 +2983,23 @@
         <v>136</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>58823.529411764706</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>7352.9411764705883</v>
       </c>
       <c r="F70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>919.11764705882354</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>229.77941176470588</v>
       </c>
       <c r="H70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>57.444852941176471</v>
       </c>
     </row>
@@ -2816,23 +3008,23 @@
         <v>138</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>57971.014492753624</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>7246.376811594203</v>
       </c>
       <c r="F71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>905.79710144927537</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>226.44927536231884</v>
       </c>
       <c r="H71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>56.612318840579711</v>
       </c>
     </row>
@@ -2841,23 +3033,23 @@
         <v>140</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>57142.857142857145</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>7142.8571428571431</v>
       </c>
       <c r="F72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>892.85714285714289</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>223.21428571428572</v>
       </c>
       <c r="H72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>55.803571428571431</v>
       </c>
     </row>
@@ -2866,23 +3058,23 @@
         <v>142</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>56338.028169014084</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>7042.2535211267605</v>
       </c>
       <c r="F73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>880.28169014084506</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>220.07042253521126</v>
       </c>
       <c r="H73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>55.017605633802816</v>
       </c>
     </row>
@@ -2891,23 +3083,23 @@
         <v>144</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>55555.555555555555</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>6944.4444444444443</v>
       </c>
       <c r="F74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>868.05555555555554</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>217.01388888888889</v>
       </c>
       <c r="H74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>54.253472222222221</v>
       </c>
     </row>
@@ -2916,23 +3108,23 @@
         <v>146</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>54794.520547945205</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>6849.3150684931506</v>
       </c>
       <c r="F75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>856.16438356164383</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>214.04109589041096</v>
       </c>
       <c r="H75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>53.510273972602739</v>
       </c>
     </row>
@@ -2941,23 +3133,23 @@
         <v>148</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>54054.054054054053</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>6756.7567567567567</v>
       </c>
       <c r="F76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>844.59459459459458</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>211.14864864864865</v>
       </c>
       <c r="H76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>52.787162162162161</v>
       </c>
     </row>
@@ -2966,23 +3158,23 @@
         <v>150</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>53333.333333333336</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>6666.666666666667</v>
       </c>
       <c r="F77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>833.33333333333337</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>208.33333333333334</v>
       </c>
       <c r="H77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>52.083333333333336</v>
       </c>
     </row>
@@ -2991,23 +3183,23 @@
         <v>152</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>52631.57894736842</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>6578.9473684210525</v>
       </c>
       <c r="F78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>822.36842105263156</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>205.59210526315789</v>
       </c>
       <c r="H78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>51.398026315789473</v>
       </c>
     </row>
@@ -3016,23 +3208,23 @@
         <v>154</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>51948.051948051951</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>6493.5064935064938</v>
       </c>
       <c r="F79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>811.68831168831173</v>
       </c>
       <c r="G79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>202.92207792207793</v>
       </c>
       <c r="H79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>50.730519480519483</v>
       </c>
     </row>
@@ -3041,23 +3233,23 @@
         <v>156</v>
       </c>
       <c r="D80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>51282.051282051281</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>6410.2564102564102</v>
       </c>
       <c r="F80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>801.28205128205127</v>
       </c>
       <c r="G80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>200.32051282051282</v>
       </c>
       <c r="H80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>50.080128205128204</v>
       </c>
     </row>
@@ -3066,23 +3258,23 @@
         <v>158</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>50632.911392405062</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>6329.1139240506327</v>
       </c>
       <c r="F81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>791.13924050632909</v>
       </c>
       <c r="G81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>197.78481012658227</v>
       </c>
       <c r="H81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>49.446202531645568</v>
       </c>
     </row>
@@ -3091,23 +3283,23 @@
         <v>160</v>
       </c>
       <c r="D82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>50000</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>6250</v>
       </c>
       <c r="F82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>781.25</v>
       </c>
       <c r="G82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>195.3125</v>
       </c>
       <c r="H82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>48.828125</v>
       </c>
     </row>
@@ -3116,23 +3308,23 @@
         <v>162</v>
       </c>
       <c r="D83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>49382.716049382718</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>6172.8395061728397</v>
       </c>
       <c r="F83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>771.60493827160496</v>
       </c>
       <c r="G83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>192.90123456790124</v>
       </c>
       <c r="H83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>48.22530864197531</v>
       </c>
     </row>
@@ -3141,23 +3333,23 @@
         <v>164</v>
       </c>
       <c r="D84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>48780.487804878052</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>6097.5609756097565</v>
       </c>
       <c r="F84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>762.19512195121956</v>
       </c>
       <c r="G84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>190.54878048780489</v>
       </c>
       <c r="H84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>47.637195121951223</v>
       </c>
     </row>
@@ -3166,23 +3358,23 @@
         <v>166</v>
       </c>
       <c r="D85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>48192.77108433735</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>6024.0963855421687</v>
       </c>
       <c r="F85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>753.01204819277109</v>
       </c>
       <c r="G85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>188.25301204819277</v>
       </c>
       <c r="H85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>47.063253012048193</v>
       </c>
     </row>
@@ -3191,23 +3383,23 @@
         <v>168</v>
       </c>
       <c r="D86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>47619.047619047618</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>5952.3809523809523</v>
       </c>
       <c r="F86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>744.04761904761904</v>
       </c>
       <c r="G86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>186.01190476190476</v>
       </c>
       <c r="H86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>46.50297619047619</v>
       </c>
     </row>
@@ -3216,23 +3408,23 @@
         <v>170</v>
       </c>
       <c r="D87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>47058.823529411762</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>5882.3529411764703</v>
       </c>
       <c r="F87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>735.29411764705878</v>
       </c>
       <c r="G87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>183.8235294117647</v>
       </c>
       <c r="H87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="22"/>
         <v>45.955882352941174</v>
       </c>
     </row>
@@ -3241,23 +3433,23 @@
         <v>172</v>
       </c>
       <c r="D88">
-        <f t="shared" ref="D88:H129" si="2">$B$1/(D$2*$C88)</f>
+        <f t="shared" ref="D88:H129" si="23">$B$1/(D$2*$C88)</f>
         <v>46511.627906976741</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5813.9534883720926</v>
       </c>
       <c r="F88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>726.74418604651157</v>
       </c>
       <c r="G88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>181.68604651162789</v>
       </c>
       <c r="H88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>45.421511627906973</v>
       </c>
     </row>
@@ -3266,23 +3458,23 @@
         <v>174</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>45977.011494252874</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5747.1264367816093</v>
       </c>
       <c r="F89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>718.39080459770116</v>
       </c>
       <c r="G89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>179.59770114942529</v>
       </c>
       <c r="H89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>44.899425287356323</v>
       </c>
     </row>
@@ -3291,23 +3483,23 @@
         <v>176</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>45454.545454545456</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5681.818181818182</v>
       </c>
       <c r="F90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>710.22727272727275</v>
       </c>
       <c r="G90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>177.55681818181819</v>
       </c>
       <c r="H90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>44.389204545454547</v>
       </c>
     </row>
@@ -3316,23 +3508,23 @@
         <v>178</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>44943.8202247191</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5617.9775280898875</v>
       </c>
       <c r="F91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>702.24719101123594</v>
       </c>
       <c r="G91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>175.56179775280899</v>
       </c>
       <c r="H91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>43.890449438202246</v>
       </c>
     </row>
@@ -3341,23 +3533,23 @@
         <v>180</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>44444.444444444445</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5555.5555555555557</v>
       </c>
       <c r="F92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>694.44444444444446</v>
       </c>
       <c r="G92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>173.61111111111111</v>
       </c>
       <c r="H92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>43.402777777777779</v>
       </c>
     </row>
@@ -3366,23 +3558,23 @@
         <v>182</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>43956.043956043955</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5494.5054945054944</v>
       </c>
       <c r="F93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>686.8131868131868</v>
       </c>
       <c r="G93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>171.7032967032967</v>
       </c>
       <c r="H93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>42.925824175824175</v>
       </c>
     </row>
@@ -3391,23 +3583,23 @@
         <v>184</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>43478.260869565216</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5434.782608695652</v>
       </c>
       <c r="F94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>679.3478260869565</v>
       </c>
       <c r="G94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>169.83695652173913</v>
       </c>
       <c r="H94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>42.459239130434781</v>
       </c>
     </row>
@@ -3416,23 +3608,23 @@
         <v>186</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>43010.752688172041</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5376.3440860215051</v>
       </c>
       <c r="F95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>672.04301075268813</v>
       </c>
       <c r="G95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>168.01075268817203</v>
       </c>
       <c r="H95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>42.002688172043008</v>
       </c>
     </row>
@@ -3441,23 +3633,23 @@
         <v>188</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>42553.191489361699</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5319.1489361702124</v>
       </c>
       <c r="F96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>664.89361702127655</v>
       </c>
       <c r="G96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>166.22340425531914</v>
       </c>
       <c r="H96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>41.555851063829785</v>
       </c>
     </row>
@@ -3466,23 +3658,23 @@
         <v>190</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>42105.26315789474</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5263.1578947368425</v>
       </c>
       <c r="F97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>657.89473684210532</v>
       </c>
       <c r="G97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>164.47368421052633</v>
       </c>
       <c r="H97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>41.118421052631582</v>
       </c>
     </row>
@@ -3491,23 +3683,23 @@
         <v>192</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>41666.666666666664</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5208.333333333333</v>
       </c>
       <c r="F98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>651.04166666666663</v>
       </c>
       <c r="G98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>162.76041666666666</v>
       </c>
       <c r="H98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>40.690104166666664</v>
       </c>
     </row>
@@ -3516,23 +3708,23 @@
         <v>194</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>41237.113402061856</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5154.6391752577319</v>
       </c>
       <c r="F99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>644.32989690721649</v>
       </c>
       <c r="G99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>161.08247422680412</v>
       </c>
       <c r="H99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>40.270618556701031</v>
       </c>
     </row>
@@ -3541,23 +3733,23 @@
         <v>196</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>40816.326530612248</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5102.0408163265311</v>
       </c>
       <c r="F100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>637.75510204081638</v>
       </c>
       <c r="G100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>159.4387755102041</v>
       </c>
       <c r="H100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>39.859693877551024</v>
       </c>
     </row>
@@ -3566,23 +3758,23 @@
         <v>198</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>40404.040404040403</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5050.5050505050503</v>
       </c>
       <c r="F101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>631.31313131313129</v>
       </c>
       <c r="G101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>157.82828282828282</v>
       </c>
       <c r="H101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>39.457070707070706</v>
       </c>
     </row>
@@ -3591,23 +3783,23 @@
         <v>200</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>40000</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>5000</v>
       </c>
       <c r="F102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>625</v>
       </c>
       <c r="G102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>156.25</v>
       </c>
       <c r="H102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>39.0625</v>
       </c>
     </row>
@@ -3616,23 +3808,23 @@
         <v>202</v>
       </c>
       <c r="D103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>39603.960396039605</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4950.4950495049507</v>
       </c>
       <c r="F103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>618.81188118811883</v>
       </c>
       <c r="G103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>154.70297029702971</v>
       </c>
       <c r="H103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>38.675742574257427</v>
       </c>
     </row>
@@ -3641,23 +3833,23 @@
         <v>204</v>
       </c>
       <c r="D104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>39215.686274509804</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4901.9607843137255</v>
       </c>
       <c r="F104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>612.74509803921569</v>
       </c>
       <c r="G104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>153.18627450980392</v>
       </c>
       <c r="H104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>38.296568627450981</v>
       </c>
     </row>
@@ -3666,23 +3858,23 @@
         <v>206</v>
       </c>
       <c r="D105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>38834.951456310679</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4854.3689320388348</v>
       </c>
       <c r="F105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>606.79611650485435</v>
       </c>
       <c r="G105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>151.69902912621359</v>
       </c>
       <c r="H105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>37.924757281553397</v>
       </c>
     </row>
@@ -3691,23 +3883,23 @@
         <v>208</v>
       </c>
       <c r="D106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>38461.538461538461</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4807.6923076923076</v>
       </c>
       <c r="F106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>600.96153846153845</v>
       </c>
       <c r="G106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>150.24038461538461</v>
       </c>
       <c r="H106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>37.560096153846153</v>
       </c>
     </row>
@@ -3716,23 +3908,23 @@
         <v>210</v>
       </c>
       <c r="D107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>38095.238095238092</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4761.9047619047615</v>
       </c>
       <c r="F107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>595.23809523809518</v>
       </c>
       <c r="G107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>148.8095238095238</v>
       </c>
       <c r="H107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>37.202380952380949</v>
       </c>
     </row>
@@ -3741,23 +3933,23 @@
         <v>212</v>
       </c>
       <c r="D108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>37735.849056603773</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4716.9811320754716</v>
       </c>
       <c r="F108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>589.62264150943395</v>
       </c>
       <c r="G108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>147.40566037735849</v>
       </c>
       <c r="H108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>36.851415094339622</v>
       </c>
     </row>
@@ -3766,23 +3958,23 @@
         <v>214</v>
       </c>
       <c r="D109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>37383.17757009346</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4672.8971962616824</v>
       </c>
       <c r="F109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>584.1121495327103</v>
       </c>
       <c r="G109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>146.02803738317758</v>
       </c>
       <c r="H109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>36.507009345794394</v>
       </c>
     </row>
@@ -3791,23 +3983,23 @@
         <v>216</v>
       </c>
       <c r="D110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>37037.037037037036</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4629.6296296296296</v>
       </c>
       <c r="F110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>578.7037037037037</v>
       </c>
       <c r="G110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>144.67592592592592</v>
       </c>
       <c r="H110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>36.168981481481481</v>
       </c>
     </row>
@@ -3816,23 +4008,23 @@
         <v>218</v>
       </c>
       <c r="D111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>36697.247706422015</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4587.1559633027518</v>
       </c>
       <c r="F111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>573.39449541284398</v>
       </c>
       <c r="G111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>143.348623853211</v>
       </c>
       <c r="H111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>35.837155963302749</v>
       </c>
     </row>
@@ -3841,23 +4033,23 @@
         <v>220</v>
       </c>
       <c r="D112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>36363.63636363636</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4545.454545454545</v>
       </c>
       <c r="F112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>568.18181818181813</v>
       </c>
       <c r="G112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>142.04545454545453</v>
       </c>
       <c r="H112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>35.511363636363633</v>
       </c>
     </row>
@@ -3866,23 +4058,23 @@
         <v>222</v>
       </c>
       <c r="D113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>36036.036036036036</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4504.5045045045044</v>
       </c>
       <c r="F113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>563.06306306306305</v>
       </c>
       <c r="G113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>140.76576576576576</v>
       </c>
       <c r="H113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>35.191441441441441</v>
       </c>
     </row>
@@ -3891,23 +4083,23 @@
         <v>224</v>
       </c>
       <c r="D114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>35714.285714285717</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4464.2857142857147</v>
       </c>
       <c r="F114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>558.03571428571433</v>
       </c>
       <c r="G114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>139.50892857142858</v>
       </c>
       <c r="H114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>34.877232142857146</v>
       </c>
     </row>
@@ -3916,23 +4108,23 @@
         <v>226</v>
       </c>
       <c r="D115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>35398.230088495577</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4424.7787610619471</v>
       </c>
       <c r="F115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>553.09734513274338</v>
       </c>
       <c r="G115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>138.27433628318585</v>
       </c>
       <c r="H115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>34.568584070796462</v>
       </c>
     </row>
@@ -3941,23 +4133,23 @@
         <v>228</v>
       </c>
       <c r="D116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>35087.719298245611</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4385.9649122807014</v>
       </c>
       <c r="F116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>548.24561403508767</v>
       </c>
       <c r="G116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>137.06140350877192</v>
       </c>
       <c r="H116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>34.265350877192979</v>
       </c>
     </row>
@@ -3966,23 +4158,23 @@
         <v>230</v>
       </c>
       <c r="D117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>34782.608695652176</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4347.826086956522</v>
       </c>
       <c r="F117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>543.47826086956525</v>
       </c>
       <c r="G117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>135.86956521739131</v>
       </c>
       <c r="H117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>33.967391304347828</v>
       </c>
     </row>
@@ -3991,23 +4183,23 @@
         <v>232</v>
       </c>
       <c r="D118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>34482.758620689652</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4310.3448275862065</v>
       </c>
       <c r="F118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>538.79310344827582</v>
       </c>
       <c r="G118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>134.69827586206895</v>
       </c>
       <c r="H118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>33.674568965517238</v>
       </c>
     </row>
@@ -4016,23 +4208,23 @@
         <v>234</v>
       </c>
       <c r="D119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>34188.034188034188</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4273.5042735042734</v>
       </c>
       <c r="F119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>534.18803418803418</v>
       </c>
       <c r="G119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>133.54700854700855</v>
       </c>
       <c r="H119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>33.386752136752136</v>
       </c>
     </row>
@@ -4041,23 +4233,23 @@
         <v>236</v>
       </c>
       <c r="D120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>33898.305084745763</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4237.2881355932204</v>
       </c>
       <c r="F120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>529.66101694915255</v>
       </c>
       <c r="G120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>132.41525423728814</v>
       </c>
       <c r="H120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>33.103813559322035</v>
       </c>
     </row>
@@ -4066,23 +4258,23 @@
         <v>238</v>
       </c>
       <c r="D121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>33613.445378151264</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4201.680672268908</v>
       </c>
       <c r="F121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>525.2100840336135</v>
       </c>
       <c r="G121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>131.30252100840337</v>
       </c>
       <c r="H121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>32.825630252100844</v>
       </c>
     </row>
@@ -4091,23 +4283,23 @@
         <v>240</v>
       </c>
       <c r="D122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>33333.333333333336</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4166.666666666667</v>
       </c>
       <c r="F122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>520.83333333333337</v>
       </c>
       <c r="G122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>130.20833333333334</v>
       </c>
       <c r="H122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>32.552083333333336</v>
       </c>
     </row>
@@ -4116,23 +4308,23 @@
         <v>242</v>
       </c>
       <c r="D123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>33057.85123966942</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4132.2314049586776</v>
       </c>
       <c r="F123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>516.52892561983469</v>
       </c>
       <c r="G123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>129.13223140495867</v>
       </c>
       <c r="H123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>32.283057851239668</v>
       </c>
     </row>
@@ -4141,23 +4333,23 @@
         <v>244</v>
       </c>
       <c r="D124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>32786.885245901642</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4098.3606557377052</v>
       </c>
       <c r="F124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>512.29508196721315</v>
       </c>
       <c r="G124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>128.07377049180329</v>
       </c>
       <c r="H124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>32.018442622950822</v>
       </c>
     </row>
@@ -4166,23 +4358,23 @@
         <v>246</v>
       </c>
       <c r="D125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>32520.325203252032</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4065.040650406504</v>
       </c>
       <c r="F125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>508.130081300813</v>
       </c>
       <c r="G125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>127.03252032520325</v>
       </c>
       <c r="H125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>31.758130081300813</v>
       </c>
     </row>
@@ -4191,23 +4383,23 @@
         <v>248</v>
       </c>
       <c r="D126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>32258.064516129034</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4032.2580645161293</v>
       </c>
       <c r="F126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>504.03225806451616</v>
       </c>
       <c r="G126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>126.00806451612904</v>
       </c>
       <c r="H126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>31.50201612903226</v>
       </c>
     </row>
@@ -4216,23 +4408,23 @@
         <v>250</v>
       </c>
       <c r="D127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>32000</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>4000</v>
       </c>
       <c r="F127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>500</v>
       </c>
       <c r="G127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>125</v>
       </c>
       <c r="H127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>31.25</v>
       </c>
     </row>
@@ -4241,23 +4433,23 @@
         <v>252</v>
       </c>
       <c r="D128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>31746.031746031746</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>3968.2539682539682</v>
       </c>
       <c r="F128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>496.03174603174602</v>
       </c>
       <c r="G128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>124.00793650793651</v>
       </c>
       <c r="H128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>31.001984126984127</v>
       </c>
     </row>
@@ -4266,23 +4458,23 @@
         <v>254</v>
       </c>
       <c r="D129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>31496.062992125986</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>3937.0078740157483</v>
       </c>
       <c r="F129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>492.12598425196853</v>
       </c>
       <c r="G129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>123.03149606299213</v>
       </c>
       <c r="H129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
         <v>30.757874015748033</v>
       </c>
     </row>
